--- a/resources/analysis/clustering/K-Means Clustering - Parchments.xlsx
+++ b/resources/analysis/clustering/K-Means Clustering - Parchments.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mzatt\Projects\Git - v4j NEW\resources\analysis\clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FE8EC6-D4BB-4421-B8F4-E87FC734BA49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8A9B05-7B10-4DB6-AB22-2F793842B12C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" activeTab="2" xr2:uid="{B8D118B6-E751-489E-A7DF-D59189414149}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" xr2:uid="{B8D118B6-E751-489E-A7DF-D59189414149}"/>
   </bookViews>
   <sheets>
     <sheet name="K-Means Clustering" sheetId="17" r:id="rId1"/>
     <sheet name="VoynichStatsMajority" sheetId="2" r:id="rId2"/>
     <sheet name="Pivot" sheetId="19" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">VoynichStatsMajority!$A$1:$L$228</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="83" r:id="rId5"/>
+    <pivotCache cacheId="100" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="294">
   <si>
     <t>Using transcription     : MZ</t>
   </si>
@@ -882,9 +882,6 @@
     <t>Count of ID</t>
   </si>
   <si>
-    <t>#N/A</t>
-  </si>
-  <si>
     <t>Spliting document using : PageSplitter [byIllustrationType=false, byQuire=false, byPageInQuire=false, byParchment=true, byLanguage=false, byHand=false, byKey=false, byExtraneousWriting=false, byCluster=false]</t>
   </si>
   <si>
@@ -922,13 +919,19 @@
   </si>
   <si>
     <t>Cluster 6 [1 items]</t>
+  </si>
+  <si>
+    <t>Clusters</t>
+  </si>
+  <si>
+    <t>Illustratioin Type &amp; Language</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,8 +947,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -974,6 +985,30 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1016,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1031,16 +1066,29 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4315,19 +4363,19 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BFDDA7B-D530-4EFC-86BA-39E25369AB75}" name="PivotTable3" cacheId="83" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BFDDA7B-D530-4EFC-86BA-39E25369AB75}" name="PivotTable3" cacheId="100" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="8">
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item x="5"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item x="1"/>
         <item x="6"/>
         <item x="7"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="4"/>
       </items>
     </pivotField>
@@ -4354,7 +4402,7 @@
         <item x="0"/>
         <item h="1" x="6"/>
         <item x="4"/>
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item h="1" x="7"/>
       </items>
     </pivotField>
@@ -4363,7 +4411,7 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="16">
     <i>
       <x v="1"/>
     </i>
@@ -4398,6 +4446,12 @@
       <x v="2"/>
     </i>
     <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
       <x v="7"/>
     </i>
     <i r="1">
@@ -4410,7 +4464,7 @@
   <colFields count="1">
     <field x="11"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="5">
     <i>
       <x/>
     </i>
@@ -4422,6 +4476,9 @@
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
   </colItems>
   <dataFields count="1">
@@ -4738,7 +4795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4040456-CD94-43B1-80B3-6FFC4C04E94E}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A74" sqref="A74:XFD75"/>
     </sheetView>
   </sheetViews>
@@ -4756,7 +4813,7 @@
     </row>
     <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4771,7 +4828,7 @@
     </row>
     <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4782,7 +4839,7 @@
     <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4802,52 +4859,52 @@
     </row>
     <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5254,7 +5311,7 @@
   <dimension ref="A1:L228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L192" sqref="L192:L228"/>
     </sheetView>
   </sheetViews>
@@ -14174,24 +14231,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A922CE25-075D-4490-B39F-56BA3C7593C2}">
-  <dimension ref="A3:E18"/>
+  <dimension ref="A3:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F20"/>
+      <pivotSelection pane="bottomRight" activeRow="2" previousRow="2" click="1" r:id="rId1">
+        <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>278</v>
       </c>
@@ -14199,7 +14260,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>275</v>
       </c>
@@ -14215,8 +14276,11 @@
       <c r="E4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>243</v>
       </c>
@@ -14224,8 +14288,9 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>243</v>
       </c>
@@ -14235,8 +14300,9 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>242</v>
       </c>
@@ -14244,8 +14310,9 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>260</v>
       </c>
@@ -14255,8 +14322,9 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>241</v>
       </c>
@@ -14270,8 +14338,11 @@
       <c r="E9" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>243</v>
       </c>
@@ -14281,8 +14352,9 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>256</v>
       </c>
@@ -14290,8 +14362,9 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>241</v>
       </c>
@@ -14301,8 +14374,9 @@
       <c r="E12" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>268</v>
       </c>
@@ -14310,8 +14384,9 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>260</v>
       </c>
@@ -14321,8 +14396,9 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>243</v>
       </c>
@@ -14332,42 +14408,72 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
         <v>10</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B20" s="9">
         <v>46</v>
       </c>
-      <c r="C18" s="9">
-        <v>86</v>
-      </c>
-      <c r="D18" s="9">
-        <v>19</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C20" s="9">
+        <v>88</v>
+      </c>
+      <c r="D20" s="9">
+        <v>20</v>
+      </c>
+      <c r="E20" s="9">
         <v>34</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -14376,64 +14482,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F859E6-9190-4755-B51D-FAF877B8D8AE}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBA6C8B-E940-40DC-AAD8-B17D9D11C8FE}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="6.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="11">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="10">
         <v>0</v>
       </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
         <v>3</v>
       </c>
-      <c r="E2" s="11">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="E2" s="10">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="F2" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>243</v>
       </c>
       <c r="B4" s="9"/>
@@ -14443,177 +14546,187 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20">
         <v>2</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="20">
         <v>46</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20">
         <v>19</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="20">
+        <v>18</v>
+      </c>
+      <c r="F7" s="20">
         <v>4</v>
       </c>
-      <c r="F7" s="9">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20">
         <v>30</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>241</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
+      <c r="E10" s="9">
         <v>16</v>
       </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20">
         <v>23</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>260</v>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>241</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9">
-        <v>10</v>
-      </c>
-      <c r="D15" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B18" s="13">
         <v>46</v>
       </c>
-      <c r="C16" s="15">
-        <v>86</v>
-      </c>
-      <c r="D16" s="15">
-        <v>19</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="C18" s="13">
+        <v>88</v>
+      </c>
+      <c r="D18" s="13">
+        <v>20</v>
+      </c>
+      <c r="E18" s="13">
+        <v>34</v>
+      </c>
+      <c r="F18" s="13">
         <v>4</v>
       </c>
-      <c r="F16" s="15">
-        <v>34</v>
-      </c>
-      <c r="G16" s="15">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>